--- a/experiment result/128_0.4_40_zs0_kappa_lp.xlsx
+++ b/experiment result/128_0.4_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0626888665248799</v>
+        <v>0.01392560912343322</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06896328842530179</v>
+        <v>0.03816394548391062</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.101239986580635</v>
+        <v>0.04011325946199974</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08264316195710469</v>
+        <v>0.04713041606758029</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08809742189643099</v>
+        <v>0.0183300162738546</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1075757844467094</v>
+        <v>0.04195943507300672</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1175684055305735</v>
+        <v>0.05637292331208671</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09062565401776652</v>
+        <v>0.05046802120570541</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08041590485917492</v>
+        <v>0.03506962088757559</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09569043699137128</v>
+        <v>0.07848917245690031</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1174313631667049</v>
+        <v>0.02165085712048557</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1481699174475825</v>
+        <v>0.07783619159825304</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0800973115192328</v>
+        <v>0.009578022114028716</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08710613256171287</v>
+        <v>0.02635957721107005</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1202900962025155</v>
+        <v>0.03937478975760533</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07711893898416707</v>
+        <v>0.01779000671145443</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1366876074306362</v>
+        <v>0.05309262354895253</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05582769486861638</v>
+        <v>0.008032291443641343</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1050124755024787</v>
+        <v>0.08830382242761926</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09369514445798302</v>
+        <v>0.0252051752392748</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06986447190925613</v>
+        <v>0.01469114729493571</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.108114202633751</v>
+        <v>0.01876921366669046</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06810557969541621</v>
+        <v>0.0372592495985679</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04403649553214421</v>
+        <v>0.004594851726388814</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06200346564229146</v>
+        <v>0.003672751761611809</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09699561942794536</v>
+        <v>0.02763510219923442</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09306710870109564</v>
+        <v>0.01053172050004685</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1044890633997436</v>
+        <v>0.04792217488108651</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07546283196716802</v>
+        <v>0.02739454645348668</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.09158595764546353</v>
+        <v>0.03152893473871651</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03162770046586043</v>
+        <v>0.002302708051199052</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.09249372040818751</v>
+        <v>0.02758566664985707</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1191832384243707</v>
+        <v>0.03007701699893752</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07180449321176678</v>
+        <v>0.03312744150970439</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1055977534421414</v>
+        <v>0.09468094005307423</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1372855536292229</v>
+        <v>0.06477726127807995</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05885988560781319</v>
+        <v>0.0102254575416192</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1038661789610287</v>
+        <v>0.03690219099304125</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1040580778727158</v>
+        <v>0.04873747150737363</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09576698342282255</v>
+        <v>0.05828837478482514</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.09711416160395095</v>
+        <v>0.04800439302602368</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08813969296963441</v>
+        <v>0.02033340250569347</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07004480697121765</v>
+        <v>0.05814551762291205</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0967178224828964</v>
+        <v>0.02652301924812066</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0960607517392256</v>
+        <v>0.04775911073100417</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1018697398399215</v>
+        <v>0.02839597077663685</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1097475542544823</v>
+        <v>0.08142442731611191</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07047702220374442</v>
+        <v>0.02973144003740278</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.08128660261547922</v>
+        <v>0.0145013182121289</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.04679964596766079</v>
+        <v>0.01400047592035856</v>
       </c>
     </row>
   </sheetData>
